--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -266,6 +266,97 @@
         </r>
       </text>
     </comment>
+    <comment ref="S12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">a : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>카드결제</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+b : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>무통장입금</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+c : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>계좌이체</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+d : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>핸드폰결제</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D13" authorId="0" shapeId="0">
       <text>
         <r>
@@ -438,6 +529,249 @@
             <charset val="129"/>
           </rPr>
           <t>등급</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">a : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">입금대기중
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">b : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">입금완료
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">c : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">배송대기중
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">d : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">배송중
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">e : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">배송완료
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">f : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">구매완료
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">g : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>주문취소</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - c</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이전까지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+h : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>반품신청</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - d</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이후부터</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+l :  </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>반품완료</t>
         </r>
       </text>
     </comment>
@@ -549,6 +883,53 @@
             <charset val="129"/>
           </rPr>
           <t>휴면계정</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Y : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>게시</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+N : </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>미게시</t>
         </r>
       </text>
     </comment>
@@ -557,7 +938,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="164">
   <si>
     <t>t_member</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -591,6 +972,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>성별</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -603,6 +988,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>추천인ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -827,6 +1220,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>addr2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -844,6 +1241,353 @@
   </si>
   <si>
     <t>"N"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_memberlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ml_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ml_pwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ml_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ml_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ml_zip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ml_addr1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ml_addr2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_productlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬럼명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pl_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원산지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품사진1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품사진2</t>
+  </si>
+  <si>
+    <t>상품사진3</t>
+  </si>
+  <si>
+    <t>설명이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pl_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pl_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pl_origin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pl_img1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pl_img2</t>
+  </si>
+  <si>
+    <t>pl_img3</t>
+  </si>
+  <si>
+    <t>pl_desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pl_stock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pl_isview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_orderlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬럼명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송지 우편번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송지 주소1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송지 주소2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수취인명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수취인전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ol_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ml_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ol_cnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ol_rname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ol_rphone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ol_rzip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ol_raddr1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ol_raddr2</t>
+  </si>
+  <si>
+    <t>ol_payment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ol_comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ol_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"a"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"a"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"N"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ol_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ol_pay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_orderdetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>od_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>un ai pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문상세ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>od_cnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>od_img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>od_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품단가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>od_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1208,10 +1952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3:X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1220,12 +1964,25 @@
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5" customWidth="1"/>
+    <col min="5" max="5" width="3.375" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.375" customWidth="1"/>
+    <col min="16" max="17" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.125" customWidth="1"/>
+    <col min="19" max="19" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.375" customWidth="1"/>
+    <col min="21" max="21" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1233,13 +1990,31 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="P1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="U1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1253,301 +2028,816 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I2" t="s">
         <v>4</v>
       </c>
+      <c r="K2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" t="s">
+        <v>82</v>
+      </c>
+      <c r="N3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R3" t="s">
+        <v>46</v>
+      </c>
+      <c r="S3" t="s">
+        <v>118</v>
+      </c>
+      <c r="U3" t="s">
+        <v>154</v>
+      </c>
+      <c r="V3" t="s">
+        <v>43</v>
+      </c>
+      <c r="W3" t="s">
+        <v>155</v>
+      </c>
+      <c r="X3" t="s">
+        <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>57</v>
+      </c>
+      <c r="K4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>65</v>
+      </c>
+      <c r="R4" t="s">
+        <v>66</v>
+      </c>
+      <c r="S4" t="s">
+        <v>57</v>
+      </c>
+      <c r="U4" t="s">
+        <v>128</v>
+      </c>
+      <c r="V4" t="s">
+        <v>65</v>
+      </c>
+      <c r="W4" t="s">
+        <v>130</v>
+      </c>
+      <c r="X4" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q5" t="s">
         <v>65</v>
       </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="R5" t="s">
+        <v>130</v>
+      </c>
+      <c r="S5" t="s">
+        <v>119</v>
+      </c>
+      <c r="U5" t="s">
+        <v>95</v>
+      </c>
+      <c r="V5" t="s">
+        <v>65</v>
+      </c>
+      <c r="W5" t="s">
+        <v>130</v>
+      </c>
+      <c r="X5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="s">
+        <v>90</v>
+      </c>
+      <c r="N6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>132</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6" t="s">
+        <v>127</v>
+      </c>
+      <c r="U6" t="s">
+        <v>157</v>
+      </c>
+      <c r="V6" t="s">
+        <v>132</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="s">
+        <v>81</v>
+      </c>
+      <c r="N7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R7" t="s">
+        <v>134</v>
+      </c>
+      <c r="S7" t="s">
+        <v>123</v>
+      </c>
+      <c r="U7" t="s">
+        <v>158</v>
+      </c>
+      <c r="V7" t="s">
+        <v>92</v>
+      </c>
+      <c r="W7" t="s">
+        <v>81</v>
+      </c>
+      <c r="X7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="s">
+        <v>81</v>
+      </c>
+      <c r="N8" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R8" t="s">
+        <v>136</v>
+      </c>
+      <c r="S8" t="s">
+        <v>124</v>
+      </c>
+      <c r="U8" t="s">
+        <v>160</v>
+      </c>
+      <c r="V8" t="s">
+        <v>43</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" t="s">
+        <v>92</v>
+      </c>
+      <c r="M9" t="s">
+        <v>91</v>
+      </c>
+      <c r="N9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>89</v>
+      </c>
+      <c r="R9" t="s">
+        <v>81</v>
+      </c>
+      <c r="S9" t="s">
+        <v>120</v>
+      </c>
+      <c r="U9" t="s">
+        <v>162</v>
+      </c>
+      <c r="V9" t="s">
+        <v>70</v>
+      </c>
+      <c r="W9" t="s">
+        <v>81</v>
+      </c>
+      <c r="X9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="P10" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>92</v>
+      </c>
+      <c r="R10" t="s">
+        <v>91</v>
+      </c>
+      <c r="S10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="P11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>92</v>
+      </c>
+      <c r="R11" t="s">
+        <v>81</v>
+      </c>
+      <c r="S11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" t="s">
+        <v>94</v>
+      </c>
+      <c r="L12" t="s">
+        <v>2</v>
+      </c>
+      <c r="M12" t="s">
         <v>55</v>
       </c>
+      <c r="N12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>141</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="S12" t="s">
+        <v>126</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" t="s">
-        <v>56</v>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" t="s">
+        <v>95</v>
+      </c>
+      <c r="L13" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" t="s">
+        <v>96</v>
+      </c>
+      <c r="N13" t="s">
+        <v>97</v>
+      </c>
+      <c r="P13" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>43</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13" t="s">
+        <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" t="s">
-        <v>69</v>
-      </c>
-      <c r="I7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" t="s">
-        <v>71</v>
-      </c>
-      <c r="I8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="K14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L14" t="s">
+        <v>92</v>
+      </c>
+      <c r="M14" t="s">
+        <v>81</v>
+      </c>
+      <c r="N14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P14" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>70</v>
+      </c>
+      <c r="S14" t="s">
+        <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="K15" t="s">
+        <v>107</v>
+      </c>
+      <c r="L15" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>99</v>
+      </c>
+      <c r="P15" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>40</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S15" t="s">
+        <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="K16" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" t="s">
+        <v>65</v>
+      </c>
+      <c r="M16" t="s">
+        <v>81</v>
+      </c>
+      <c r="N16" t="s">
+        <v>100</v>
+      </c>
+      <c r="P16" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>150</v>
+      </c>
+      <c r="R16" t="s">
+        <v>52</v>
+      </c>
+      <c r="S16" t="s">
+        <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" t="s">
+        <v>109</v>
+      </c>
+      <c r="L17" t="s">
+        <v>92</v>
+      </c>
+      <c r="M17" t="s">
+        <v>81</v>
+      </c>
+      <c r="N17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K18" t="s">
+        <v>110</v>
+      </c>
+      <c r="L18" t="s">
         <v>37</v>
       </c>
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" t="s">
-        <v>42</v>
+      <c r="N18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K19" t="s">
+        <v>111</v>
+      </c>
+      <c r="L19" t="s">
+        <v>92</v>
+      </c>
+      <c r="N19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K20" t="s">
+        <v>112</v>
+      </c>
+      <c r="L20" t="s">
+        <v>92</v>
+      </c>
+      <c r="M20" t="s">
+        <v>81</v>
+      </c>
+      <c r="N20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K21" t="s">
+        <v>113</v>
+      </c>
+      <c r="L21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M21">
+        <v>-1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K22" t="s">
+        <v>114</v>
+      </c>
+      <c r="L22" t="s">
+        <v>40</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="N22" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
+    <mergeCell ref="U1:X1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="P1:S1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
